--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed1/result_data_RandomForest.xlsx
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.2126</v>
+        <v>-14.1707</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.7906</v>
+        <v>-7.765700000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>11.96920000000001</v>
+        <v>12.1494</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.080099999999996</v>
+        <v>-8.1465</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.81389999999999</v>
+        <v>-11.98530000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.262199999999996</v>
+        <v>-8.347799999999998</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.66090000000001</v>
+        <v>14.09590000000001</v>
       </c>
     </row>
     <row r="10">
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.13880000000001</v>
+        <v>-11.9979</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.700100000000003</v>
+        <v>-8.805200000000003</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.95</v>
+        <v>12.8908</v>
       </c>
     </row>
     <row r="19">
